--- a/HelloMaven/testdata/loginTestdata.xlsx
+++ b/HelloMaven/testdata/loginTestdata.xlsx
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
